--- a/resultFormat.xlsx
+++ b/resultFormat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096DE5C1-291F-4255-A05C-38940A99E8EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF43850-1CFB-4AAF-AD83-FD7751937A44}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="16200" windowHeight="9398" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Format" sheetId="2" r:id="rId1"/>
+    <sheet name="Result" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,33 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="9">
-  <si>
-    <t>Столбец1</t>
-  </si>
-  <si>
-    <t>Столбец2</t>
-  </si>
-  <si>
-    <t>Столбец3</t>
-  </si>
-  <si>
-    <t>Столбец4</t>
-  </si>
-  <si>
-    <t>Столбец5</t>
-  </si>
-  <si>
-    <t>Столбец6</t>
-  </si>
-  <si>
-    <t>Обнаружено судебное дело (см. ссылку)</t>
-  </si>
-  <si>
-    <t>ООО "ЕВРОТРАНС"</t>
-  </si>
-  <si>
-    <t>https://kad.arbitr.ru/Card/9a04cbd1-1f1e-4f26-813b-85cf97697955</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Название компании</t>
+  </si>
+  <si>
+    <t>ИНН</t>
+  </si>
+  <si>
+    <t>Начало периода</t>
+  </si>
+  <si>
+    <t>Окончание периода</t>
+  </si>
+  <si>
+    <t>Ссылка</t>
+  </si>
+  <si>
+    <t>Статус</t>
   </si>
 </sst>
 </file>
@@ -91,7 +82,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -105,18 +96,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -143,6 +128,9 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -158,15 +146,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83986B22-3B61-405F-88BB-9684BD4B813A}" name="Таблица1" displayName="Таблица1" ref="A1:F2" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83986B22-3B61-405F-88BB-9684BD4B813A}" name="Таблица1" displayName="Таблица1" ref="A1:F2" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="A1:F2" xr:uid="{A0B55D26-6055-4627-910F-968D42A44530}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{CFB6E728-64A8-4ADF-BDB3-A1E196E36295}" name="Столбец1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{8AB05E53-751C-4C31-98E0-0B3AB86B97AF}" name="Столбец2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{2D836B73-6073-464E-8A65-45719478164D}" name="Столбец3" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{70556501-B593-419F-9AAA-564826304ACB}" name="Столбец4" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{B63A20C1-7098-4D7C-AA83-8249B66CCA46}" name="Столбец5" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{4338B633-B471-472B-986F-66F32040775F}" name="Столбец6" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="1" xr3:uid="{CFB6E728-64A8-4ADF-BDB3-A1E196E36295}" name="Статус" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8AB05E53-751C-4C31-98E0-0B3AB86B97AF}" name="Название компании" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{2D836B73-6073-464E-8A65-45719478164D}" name="ИНН" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{70556501-B593-419F-9AAA-564826304ACB}" name="Начало периода" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{B63A20C1-7098-4D7C-AA83-8249B66CCA46}" name="Окончание периода" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{4338B633-B471-472B-986F-66F32040775F}" name="Ссылка" dataDxfId="0" dataCellStyle="Гиперссылка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -437,40 +425,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702B5DF7-8DAE-4FF5-87DD-7EBCF11EC697}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.53125" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="16.1328125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.265625" customWidth="1"/>
-    <col min="5" max="5" width="15.86328125" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" customWidth="1"/>
+    <col min="4" max="4" width="16.1328125" customWidth="1"/>
+    <col min="5" max="5" width="18.1328125" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="93.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="5"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>

--- a/resultFormat.xlsx
+++ b/resultFormat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF43850-1CFB-4AAF-AD83-FD7751937A44}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24526A26-B25F-4EE8-A0FA-5CEC7C377D64}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +56,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -82,7 +89,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -93,8 +100,11 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -103,7 +113,7 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ h:mm"/>
@@ -146,15 +156,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83986B22-3B61-405F-88BB-9684BD4B813A}" name="Таблица1" displayName="Таблица1" ref="A1:F2" totalsRowShown="0" dataDxfId="6">
-  <autoFilter ref="A1:F2" xr:uid="{A0B55D26-6055-4627-910F-968D42A44530}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:F2" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{CFB6E728-64A8-4ADF-BDB3-A1E196E36295}" name="Статус" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{8AB05E53-751C-4C31-98E0-0B3AB86B97AF}" name="Название компании" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{2D836B73-6073-464E-8A65-45719478164D}" name="ИНН" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{70556501-B593-419F-9AAA-564826304ACB}" name="Начало периода" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{B63A20C1-7098-4D7C-AA83-8249B66CCA46}" name="Окончание периода" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{4338B633-B471-472B-986F-66F32040775F}" name="Ссылка" dataDxfId="0" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Статус" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Название компании" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ИНН" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Начало периода" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Окончание периода" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Ссылка" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -422,24 +432,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702B5DF7-8DAE-4FF5-87DD-7EBCF11EC697}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="16.1328125" customWidth="1"/>
-    <col min="3" max="3" width="14.796875" customWidth="1"/>
+    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="2" max="2" width="23.73046875" customWidth="1"/>
+    <col min="3" max="3" width="14.86328125" customWidth="1"/>
     <col min="4" max="4" width="16.1328125" customWidth="1"/>
     <col min="5" max="5" width="18.1328125" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="93.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -465,12 +475,12 @@
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>